--- a/biology/Botanique/Echinodorus_berteroi/Echinodorus_berteroi.xlsx
+++ b/biology/Botanique/Echinodorus_berteroi/Echinodorus_berteroi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodorus berteroi ou Plante cellophane est une plante aquatique tropicale de la famille des Alismatacées.
 </t>
@@ -511,13 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est présente aux États-Unis, en Amérique centrale, au Venezuela et au Guyana.
-Synonymes
-Alisma berteroi Spreng. (basionyme)
-Alisma rostratum Nutt.
-Echinodorus rostratus (Nutt.) Engelm. ex A. Gray</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente aux États-Unis, en Amérique centrale, au Venezuela et au Guyana.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ses feuilles peuvent atteindre 70 cm.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alisma berteroi Spreng. (basionyme)
+Alisma rostratum Nutt.
+Echinodorus rostratus (Nutt.) Engelm. ex A. Gray</t>
         </is>
       </c>
     </row>
@@ -573,10 +591,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles peuvent atteindre 70 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinodorus_berteroi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinodorus_berteroi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ignorée des commerces aquariophiles, l'Echinodorus berteroi pousse tant en eau douce qu'en eau dure. L'intensité de la lumière sera de moyenne à forte. La température ira de 20 à 27 °C.
 </t>
